--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aasif\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215B1CD6-0741-4FB5-A4A1-DF38513F527C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C6BB7-91D7-4429-8F2F-71AE6543E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15675" xr2:uid="{6B12E2A7-C435-4E53-846C-C74CB18AF91C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>title</t>
   </si>
@@ -45,9 +45,6 @@
     <t>f_thumbnail</t>
   </si>
   <si>
-    <t>cat_id</t>
-  </si>
-  <si>
     <t>short_desc</t>
   </si>
   <si>
@@ -111,48 +108,12 @@
     <t>og_keywords</t>
   </si>
   <si>
-    <t>Product Title 1</t>
-  </si>
-  <si>
-    <t>Product Desc 1</t>
-  </si>
-  <si>
     <t>thumbnail1.jpg</t>
   </si>
   <si>
-    <t>Short Desc 1</t>
-  </si>
-  <si>
-    <t>SKU001</t>
-  </si>
-  <si>
-    <t>Keyword 1</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Product Title 2</t>
-  </si>
-  <si>
-    <t>Product Desc 2</t>
-  </si>
-  <si>
     <t>thumbnail2.jpg</t>
   </si>
   <si>
-    <t>Short Desc 2</t>
-  </si>
-  <si>
-    <t>SKU002</t>
-  </si>
-  <si>
-    <t>Keyword 2</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -171,28 +132,97 @@
     <t>color_1</t>
   </si>
   <si>
-    <t>Product 1 Title</t>
-  </si>
-  <si>
-    <t>Product 1 Desc</t>
-  </si>
-  <si>
     <t>image1.jpg</t>
   </si>
   <si>
     <t>image2.jpg</t>
   </si>
   <si>
-    <t>Product 2 Title</t>
-  </si>
-  <si>
-    <t>Product 2 Desc</t>
-  </si>
-  <si>
     <t>image3.jpg</t>
   </si>
   <si>
     <t>image4.jpg</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>subcategory_id</t>
+  </si>
+  <si>
+    <t>is_publish</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>motorcycle</t>
+  </si>
+  <si>
+    <t>Short Desc 6</t>
+  </si>
+  <si>
+    <t>Short Desc 7</t>
+  </si>
+  <si>
+    <t>variation_color</t>
+  </si>
+  <si>
+    <t>variation_size</t>
+  </si>
+  <si>
+    <t>Product Title 9</t>
+  </si>
+  <si>
+    <t>Product Title 10</t>
+  </si>
+  <si>
+    <t>Product Desc 9</t>
+  </si>
+  <si>
+    <t>Product Desc 10</t>
+  </si>
+  <si>
+    <t>red,green,blue,black,white</t>
+  </si>
+  <si>
+    <t>green,blue,black</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>small,medium,large</t>
+  </si>
+  <si>
+    <t>Product 9 Title</t>
+  </si>
+  <si>
+    <t>Product 10 Title</t>
+  </si>
+  <si>
+    <t>Product 9 Desc</t>
+  </si>
+  <si>
+    <t>Product 10 Desc</t>
+  </si>
+  <si>
+    <t>Keyword 11</t>
+  </si>
+  <si>
+    <t>Keyword 12</t>
+  </si>
+  <si>
+    <t>SKU009</t>
+  </si>
+  <si>
+    <t>SKU0010</t>
   </si>
 </sst>
 </file>
@@ -200,7 +230,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -247,13 +277,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,22 +598,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7386FD65-4FD3-4262-95F8-D0608A2B3918}">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.86328125" customWidth="1"/>
-    <col min="2" max="3" width="9.06640625" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" customWidth="1"/>
-    <col min="8" max="9" width="9.06640625" customWidth="1"/>
-    <col min="16" max="17" width="9.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.06640625" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" customWidth="1"/>
+    <col min="9" max="10" width="9.06640625" customWidth="1"/>
+    <col min="18" max="19" width="9.9296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,260 +624,296 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2">
+        <v>80</v>
+      </c>
+      <c r="L2" s="2">
+        <v>70</v>
+      </c>
+      <c r="M2" s="2">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>50</v>
+      </c>
+      <c r="P2" s="2">
+        <v>95</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>110</v>
+      </c>
+      <c r="R2" s="4">
+        <v>45444</v>
+      </c>
+      <c r="S2" s="4">
+        <v>45473</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="2">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100</v>
-      </c>
-      <c r="I2" s="2">
-        <v>90</v>
-      </c>
-      <c r="J2" s="2">
-        <v>80</v>
-      </c>
-      <c r="K2" s="2">
-        <v>70</v>
-      </c>
-      <c r="L2" s="2">
-        <v>60</v>
-      </c>
-      <c r="M2" s="2">
-        <v>50</v>
-      </c>
-      <c r="N2" s="2">
-        <v>95</v>
-      </c>
-      <c r="O2" s="2">
-        <v>110</v>
-      </c>
-      <c r="P2" s="4">
-        <v>45444</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>45473</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="2">
-        <v>100</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
       </c>
       <c r="H3" s="2">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2">
         <v>120</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>110</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>100</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>90</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>80</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
         <v>60</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>105</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>125</v>
       </c>
-      <c r="P3" s="4">
+      <c r="R3" s="4">
         <v>45444</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="S3" s="4">
         <v>45473</v>
       </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
       <c r="T3" s="2">
         <v>1</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>37</v>
+      <c r="U3" s="2">
+        <v>1</v>
       </c>
       <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="2">
         <v>120</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="Y3" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
